--- a/FinalResultsPerAlgorithm/NQueen27.xlsx
+++ b/FinalResultsPerAlgorithm/NQueen27.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\FinalResultsPerAlgorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBA8601-3198-4167-9F50-EE409869FBB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6F3383-47EC-46DA-B4AA-023C28ADD358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>AssemblyScript</t>
   </si>
@@ -40,6 +48,9 @@
   </si>
   <si>
     <t>Iterations</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -63,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,12 +82,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,6 +2446,27 @@
         <v>0.45260056100000001</v>
       </c>
     </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="1">
+        <f>SUM(B2:B121)</f>
+        <v>517.36718821299996</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" ref="C122:E122" si="0">SUM(C2:C121)</f>
+        <v>58.152907381999974</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" si="0"/>
+        <v>50.41014082200001</v>
+      </c>
+      <c r="E122" s="1">
+        <f t="shared" si="0"/>
+        <v>63.607786649000012</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
